--- a/Assets/Data/Weights.xlsx
+++ b/Assets/Data/Weights.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21620" windowHeight="13480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21620" windowHeight="13480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Poids" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Weights.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:francoisezitouni:Documents:MPTangam:Assets:Data:Weights.txt" decimal="," thousands=" " delimiter=":">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:francoisezitouni:Documents:MPTangam:Assets:Data:Weights.txt" decimal="," thousands=" " delimiter=":">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -171,9 +171,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -219,7 +235,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="36">
+  <cellStyles count="52">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
@@ -237,6 +253,14 @@
     <cellStyle name="Lien hypertexte" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
@@ -254,6 +278,14 @@
     <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -588,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="D2:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="A20:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -653,19 +685,19 @@
         <v>2</v>
       </c>
       <c r="G2" s="2">
-        <f>C2/SUM(C:C)</f>
+        <f t="shared" ref="G2:G19" si="0">C2/SUM(C:C)</f>
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f>D2/SUM(D:D)</f>
+        <f t="shared" ref="H2:H19" si="1">D2/SUM(D:D)</f>
         <v>0.1</v>
       </c>
       <c r="I2" s="2">
-        <f>E2/SUM(E:E)</f>
+        <f t="shared" ref="I2:I19" si="2">E2/SUM(E:E)</f>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="J2" s="2">
-        <f>F2/SUM(F:F)</f>
+        <f t="shared" ref="J2:J19" si="3">F2/SUM(F:F)</f>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
@@ -689,19 +721,19 @@
         <v>2</v>
       </c>
       <c r="G3" s="2">
-        <f>C3/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f>D3/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I3" s="2">
-        <f>E3/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="J3" s="2">
-        <f>F3/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
@@ -725,19 +757,19 @@
         <v>2</v>
       </c>
       <c r="G4" s="2">
-        <f>C4/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f>D4/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I4" s="2">
-        <f>E4/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="J4" s="2">
-        <f>F4/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
@@ -761,19 +793,19 @@
         <v>2</v>
       </c>
       <c r="G5" s="2">
-        <f>C5/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <f>D5/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I5" s="2">
-        <f>E5/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="J5" s="2">
-        <f>F5/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
@@ -797,19 +829,19 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <f>C6/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f>D6/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f>E6/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <f>F6/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
@@ -833,19 +865,19 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <f>C7/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <f>D7/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f>E7/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <f>F7/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
@@ -869,19 +901,19 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <f>C8/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <f>D8/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f>E8/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <f>F8/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
@@ -905,19 +937,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <f>C9/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <f>D9/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f>E9/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <f>F9/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
@@ -941,19 +973,19 @@
         <v>2</v>
       </c>
       <c r="G10" s="2">
-        <f>C10/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <f>D10/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f>E10/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="J10" s="2">
-        <f>F10/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
@@ -977,19 +1009,19 @@
         <v>2</v>
       </c>
       <c r="G11" s="2">
-        <f>C11/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <f>D11/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f>E11/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="J11" s="2">
-        <f>F11/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
@@ -1013,19 +1045,19 @@
         <v>2</v>
       </c>
       <c r="G12" s="2">
-        <f>C12/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <f>D12/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <f>E12/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="J12" s="2">
-        <f>F12/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
@@ -1049,19 +1081,19 @@
         <v>2</v>
       </c>
       <c r="G13" s="2">
-        <f>C13/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <f>D13/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <f>E13/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="J13" s="2">
-        <f>F13/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
@@ -1082,19 +1114,19 @@
         <v>2</v>
       </c>
       <c r="G14" s="2">
-        <f>C14/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <f>D14/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I14" s="2">
-        <f>E14/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="J14" s="2">
-        <f>F14/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
@@ -1115,19 +1147,19 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <f>C15/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <f>D15/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f>E15/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <f>F15/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
@@ -1151,19 +1183,19 @@
         <v>2</v>
       </c>
       <c r="G16" s="2">
-        <f>C16/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="H16" s="2">
-        <f>D16/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I16" s="2">
-        <f>E16/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="J16" s="2">
-        <f>F16/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
@@ -1187,19 +1219,19 @@
         <v>2</v>
       </c>
       <c r="G17" s="2">
-        <f>C17/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="H17" s="2">
-        <f>D17/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I17" s="2">
-        <f>E17/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="J17" s="2">
-        <f>F17/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
@@ -1223,19 +1255,19 @@
         <v>2</v>
       </c>
       <c r="G18" s="2">
-        <f>C18/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="H18" s="2">
-        <f>D18/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I18" s="2">
-        <f>E18/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="J18" s="2">
-        <f>F18/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
@@ -1259,24 +1291,48 @@
         <v>2</v>
       </c>
       <c r="G19" s="2">
-        <f>C19/SUM(C:C)</f>
+        <f t="shared" si="0"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="H19" s="2">
-        <f>D19/SUM(D:D)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I19" s="2">
-        <f>E19/SUM(E:E)</f>
+        <f t="shared" si="2"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="J19" s="2">
-        <f>F19/SUM(F:F)</f>
+        <f t="shared" si="3"/>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
+    <row r="20" spans="1:10">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G19">
+  <conditionalFormatting sqref="G2:G23">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1290,7 +1346,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H19">
+  <conditionalFormatting sqref="H2:H23">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -1304,7 +1360,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I19">
+  <conditionalFormatting sqref="I2:I23">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1318,7 +1374,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J19">
+  <conditionalFormatting sqref="J2:J23">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1346,7 +1402,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G19</xm:sqref>
+          <xm:sqref>G2:G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5C243F4B-53B6-1341-A631-F4DCCA06D945}">
@@ -1357,7 +1413,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H19</xm:sqref>
+          <xm:sqref>H2:H23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6CAA247C-236A-9F4F-AF4E-A477F2A4A83F}">
@@ -1368,7 +1424,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I19</xm:sqref>
+          <xm:sqref>I2:I23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1A1D8572-22C2-154A-A5E5-19616B3CB2D2}">
@@ -1379,7 +1435,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J2:J19</xm:sqref>
+          <xm:sqref>J2:J23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1394,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Assets/Data/Weights.xlsx
+++ b/Assets/Data/Weights.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21620" windowHeight="13480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17400" windowHeight="13480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="10460" yWindow="400" windowWidth="16680" windowHeight="12920" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Poids" sheetId="1" r:id="rId1"/>
     <sheet name="Sortie" sheetId="2" r:id="rId2"/>
+    <sheet name="Sequences" sheetId="3" r:id="rId3"/>
+    <sheet name="Sortie2" sheetId="4" r:id="rId4"/>
+    <sheet name="Weights" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Weights" localSheetId="0">Poids!$B$1:$F$2</definedName>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
   <si>
     <t>Type</t>
   </si>
@@ -108,6 +112,108 @@
   </si>
   <si>
     <t>Proba 4</t>
+  </si>
+  <si>
+    <t>Lvl</t>
+  </si>
+  <si>
+    <t>TriangleSW</t>
+  </si>
+  <si>
+    <t>ParallelogramSENW</t>
+  </si>
+  <si>
+    <t>TriangleNE</t>
+  </si>
+  <si>
+    <t>TriangleNW</t>
+  </si>
+  <si>
+    <t>TriangleSE</t>
+  </si>
+  <si>
+    <t>TriangleN</t>
+  </si>
+  <si>
+    <t>TriangleE</t>
+  </si>
+  <si>
+    <t>BigTriangleNE</t>
+  </si>
+  <si>
+    <t>TrapezeE</t>
+  </si>
+  <si>
+    <t>ParallelogramNWSE</t>
+  </si>
+  <si>
+    <t>TrapezeN</t>
+  </si>
+  <si>
+    <t>TrapezeW</t>
+  </si>
+  <si>
+    <t>Triangle NW</t>
+  </si>
+  <si>
+    <t>ParallelogramSN</t>
+  </si>
+  <si>
+    <t>TriangleW</t>
+  </si>
+  <si>
+    <t>TriangleS</t>
+  </si>
+  <si>
+    <t>ParallelogramSWNE</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Shape1</t>
+  </si>
+  <si>
+    <t>Shape2</t>
+  </si>
+  <si>
+    <t>Shape3</t>
+  </si>
+  <si>
+    <t>Shape4</t>
+  </si>
+  <si>
+    <t>Shape5</t>
+  </si>
+  <si>
+    <t>Shape6</t>
+  </si>
+  <si>
+    <t>Shape7</t>
+  </si>
+  <si>
+    <t>Shape8</t>
+  </si>
+  <si>
+    <t>Shape9</t>
+  </si>
+  <si>
+    <t>Shape10</t>
+  </si>
+  <si>
+    <t>Shape11</t>
+  </si>
+  <si>
+    <t>Shape12</t>
+  </si>
+  <si>
+    <t>Shape13</t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
 </sst>
 </file>
@@ -171,9 +277,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -235,7 +355,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="66">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
@@ -261,6 +381,13 @@
     <cellStyle name="Lien hypertexte" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
@@ -286,6 +413,13 @@
     <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -625,6 +759,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="A20:XFD23"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1441,6 +1576,7 @@
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -1450,9 +1586,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A1:A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1573,6 +1710,543 @@
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.83203125" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.5" customWidth="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.33203125" customWidth="1"/>
+    <col min="20" max="20" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.6640625" customWidth="1"/>
+    <col min="23" max="23" width="1.6640625" customWidth="1"/>
+    <col min="25" max="25" width="2.33203125" customWidth="1"/>
+    <col min="27" max="27" width="1.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(A2:A$2,A2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"Lvl"&amp;A2&amp;"-"&amp;B2</f>
+        <v>Lvl1-1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(A$2:A3,A3)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C9" si="0">"Lvl"&amp;A3&amp;"-"&amp;B3</f>
+        <v>Lvl1-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(A$2:A4,A4)</f>
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Lvl1-3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIF(A$2:A5,A5)</f>
+        <v>4</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Lvl1-4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f>COUNTIF(A$2:A6,A6)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Lvl2-1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <f>COUNTIF(A$2:A7,A7)</f>
+        <v>2</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Lvl2-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <f>COUNTIF(A$2:A8,A8)</f>
+        <v>3</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Lvl2-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <f>COUNTIF(A$2:A9,A9)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Lvl3-1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="B8" sqref="B1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="99.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="str">
+        <f>Sequences!C2&amp;":"&amp;Sequences!D2&amp;Sequences!E2&amp;Sequences!F2&amp;Sequences!G2&amp;Sequences!H2&amp;Sequences!I2&amp;Sequences!J2&amp;Sequences!K2&amp;Sequences!L2&amp;Sequences!M2&amp;Sequences!N2&amp;Sequences!O2&amp;Sequences!P2&amp;Sequences!Q2&amp;Sequences!R2&amp;Sequences!S2&amp;Sequences!T2&amp;Sequences!U2&amp;Sequences!V2&amp;Sequences!W2&amp;Sequences!X2&amp;Sequences!Y2&amp;Sequences!Z2&amp;Sequences!AA2&amp;Sequences!AB2</f>
+        <v>Lvl1-1:TriangleSW:ParallelogramSENW:TriangleNE</v>
+      </c>
+      <c r="B1" t="str">
+        <f>Sequences!C2&amp;":"&amp;Sequences!A2-1&amp;":"&amp;1</f>
+        <v>Lvl1-1:0:1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="str">
+        <f>Sequences!C3&amp;":"&amp;Sequences!D3&amp;Sequences!E3&amp;Sequences!F3&amp;Sequences!G3&amp;Sequences!H3&amp;Sequences!I3&amp;Sequences!J3&amp;Sequences!K3&amp;Sequences!L3&amp;Sequences!M3&amp;Sequences!N3&amp;Sequences!O3&amp;Sequences!P3&amp;Sequences!Q3&amp;Sequences!R3&amp;Sequences!S3&amp;Sequences!T3&amp;Sequences!U3&amp;Sequences!V3&amp;Sequences!W3&amp;Sequences!X3&amp;Sequences!Y3&amp;Sequences!Z3&amp;Sequences!AA3&amp;Sequences!AB3</f>
+        <v>Lvl1-2:TriangleNW:TriangleSE:TriangleSW:TriangleNE:Diamond</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Sequences!C3&amp;":"&amp;Sequences!A3-1&amp;":"&amp;1</f>
+        <v>Lvl1-2:0:1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="str">
+        <f>Sequences!C4&amp;":"&amp;Sequences!D4&amp;Sequences!E4&amp;Sequences!F4&amp;Sequences!G4&amp;Sequences!H4&amp;Sequences!I4&amp;Sequences!J4&amp;Sequences!K4&amp;Sequences!L4&amp;Sequences!M4&amp;Sequences!N4&amp;Sequences!O4&amp;Sequences!P4&amp;Sequences!Q4&amp;Sequences!R4&amp;Sequences!S4&amp;Sequences!T4&amp;Sequences!U4&amp;Sequences!V4&amp;Sequences!W4&amp;Sequences!X4&amp;Sequences!Y4&amp;Sequences!Z4&amp;Sequences!AA4&amp;Sequences!AB4</f>
+        <v>Lvl1-3:TriangleN:TriangleE:BigTriangleNE</v>
+      </c>
+      <c r="B3" t="str">
+        <f>Sequences!C4&amp;":"&amp;Sequences!A4-1&amp;":"&amp;1</f>
+        <v>Lvl1-3:0:1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="str">
+        <f>Sequences!C5&amp;":"&amp;Sequences!D5&amp;Sequences!E5&amp;Sequences!F5&amp;Sequences!G5&amp;Sequences!H5&amp;Sequences!I5&amp;Sequences!J5&amp;Sequences!K5&amp;Sequences!L5&amp;Sequences!M5&amp;Sequences!N5&amp;Sequences!O5&amp;Sequences!P5&amp;Sequences!Q5&amp;Sequences!R5&amp;Sequences!S5&amp;Sequences!T5&amp;Sequences!U5&amp;Sequences!V5&amp;Sequences!W5&amp;Sequences!X5&amp;Sequences!Y5&amp;Sequences!Z5&amp;Sequences!AA5&amp;Sequences!AB5</f>
+        <v>Lvl1-4:TriangleSE:TriangleNE:TrapezeE</v>
+      </c>
+      <c r="B4" t="str">
+        <f>Sequences!C5&amp;":"&amp;Sequences!A5-1&amp;":"&amp;1</f>
+        <v>Lvl1-4:0:1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="str">
+        <f>Sequences!C6&amp;":"&amp;Sequences!D6&amp;Sequences!E6&amp;Sequences!F6&amp;Sequences!G6&amp;Sequences!H6&amp;Sequences!I6&amp;Sequences!J6&amp;Sequences!K6&amp;Sequences!L6&amp;Sequences!M6&amp;Sequences!N6&amp;Sequences!O6&amp;Sequences!P6&amp;Sequences!Q6&amp;Sequences!R6&amp;Sequences!S6&amp;Sequences!T6&amp;Sequences!U6&amp;Sequences!V6&amp;Sequences!W6&amp;Sequences!X6&amp;Sequences!Y6&amp;Sequences!Z6&amp;Sequences!AA6&amp;Sequences!AB6</f>
+        <v>Lvl2-1:ParallelogramNWSE:TriangleE:BigTriangleNE:TrapezeN</v>
+      </c>
+      <c r="B5" t="str">
+        <f>Sequences!C6&amp;":"&amp;Sequences!A6-1&amp;":"&amp;1</f>
+        <v>Lvl2-1:1:1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="str">
+        <f>Sequences!C7&amp;":"&amp;Sequences!D7&amp;Sequences!E7&amp;Sequences!F7&amp;Sequences!G7&amp;Sequences!H7&amp;Sequences!I7&amp;Sequences!J7&amp;Sequences!K7&amp;Sequences!L7&amp;Sequences!M7&amp;Sequences!N7&amp;Sequences!O7&amp;Sequences!P7&amp;Sequences!Q7&amp;Sequences!R7&amp;Sequences!S7&amp;Sequences!T7&amp;Sequences!U7&amp;Sequences!V7&amp;Sequences!W7&amp;Sequences!X7&amp;Sequences!Y7&amp;Sequences!Z7&amp;Sequences!AA7&amp;Sequences!AB7</f>
+        <v>Lvl2-2:TrapezeW:Triangle NW:Triangle NW:TriangleN:ParallelogramSN</v>
+      </c>
+      <c r="B6" t="str">
+        <f>Sequences!C7&amp;":"&amp;Sequences!A7-1&amp;":"&amp;1</f>
+        <v>Lvl2-2:1:1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="str">
+        <f>Sequences!C8&amp;":"&amp;Sequences!D8&amp;Sequences!E8&amp;Sequences!F8&amp;Sequences!G8&amp;Sequences!H8&amp;Sequences!I8&amp;Sequences!J8&amp;Sequences!K8&amp;Sequences!L8&amp;Sequences!M8&amp;Sequences!N8&amp;Sequences!O8&amp;Sequences!P8&amp;Sequences!Q8&amp;Sequences!R8&amp;Sequences!S8&amp;Sequences!T8&amp;Sequences!U8&amp;Sequences!V8&amp;Sequences!W8&amp;Sequences!X8&amp;Sequences!Y8&amp;Sequences!Z8&amp;Sequences!AA8&amp;Sequences!AB8</f>
+        <v>Lvl2-3:TriangleNW:TriangleNE:TriangleW:Diamond:TriangleN:TriangleE</v>
+      </c>
+      <c r="B7" t="str">
+        <f>Sequences!C8&amp;":"&amp;Sequences!A8-1&amp;":"&amp;1</f>
+        <v>Lvl2-3:1:1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="str">
+        <f>Sequences!C9&amp;":"&amp;Sequences!D9&amp;Sequences!E9&amp;Sequences!F9&amp;Sequences!G9&amp;Sequences!H9&amp;Sequences!I9&amp;Sequences!J9&amp;Sequences!K9&amp;Sequences!L9&amp;Sequences!M9&amp;Sequences!N9&amp;Sequences!O9&amp;Sequences!P9&amp;Sequences!Q9&amp;Sequences!R9&amp;Sequences!S9&amp;Sequences!T9&amp;Sequences!U9&amp;Sequences!V9&amp;Sequences!W9&amp;Sequences!X9&amp;Sequences!Y9&amp;Sequences!Z9&amp;Sequences!AA9&amp;Sequences!AB9</f>
+        <v>Lvl3-1:TriangleSW:TriangleN:Diamond:TriangleE:TriangleNE:TriangleS:TriangleW:ParallelogramSWNE:ParallelogramSENW</v>
+      </c>
+      <c r="B8" t="str">
+        <f>Sequences!C9&amp;":"&amp;Sequences!A9-1&amp;":"&amp;1</f>
+        <v>Lvl3-1:2:1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>

--- a/Assets/Data/Weights.xlsx
+++ b/Assets/Data/Weights.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
   <si>
     <t>Type</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>TrapezeW</t>
-  </si>
-  <si>
-    <t>Triangle NW</t>
   </si>
   <si>
     <t>ParallelogramSN</t>
@@ -1721,7 +1718,7 @@
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -1758,49 +1755,49 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>49</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>51</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>52</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -1819,13 +1816,13 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -1847,25 +1844,25 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
@@ -1887,13 +1884,13 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
@@ -1915,13 +1912,13 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
@@ -1943,19 +1940,19 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
@@ -1977,28 +1974,28 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
         <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -2017,31 +2014,31 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
         <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N8" t="s">
         <v>30</v>
@@ -2063,49 +2060,49 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
         <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
         <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" t="s">
         <v>39</v>
       </c>
-      <c r="O9" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" t="s">
-        <v>40</v>
-      </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T9" t="s">
         <v>25</v>
@@ -2192,7 +2189,7 @@
     <row r="6" spans="1:2">
       <c r="A6" t="str">
         <f>Sequences!C7&amp;":"&amp;Sequences!D7&amp;Sequences!E7&amp;Sequences!F7&amp;Sequences!G7&amp;Sequences!H7&amp;Sequences!I7&amp;Sequences!J7&amp;Sequences!K7&amp;Sequences!L7&amp;Sequences!M7&amp;Sequences!N7&amp;Sequences!O7&amp;Sequences!P7&amp;Sequences!Q7&amp;Sequences!R7&amp;Sequences!S7&amp;Sequences!T7&amp;Sequences!U7&amp;Sequences!V7&amp;Sequences!W7&amp;Sequences!X7&amp;Sequences!Y7&amp;Sequences!Z7&amp;Sequences!AA7&amp;Sequences!AB7</f>
-        <v>Lvl2-2:TrapezeW:Triangle NW:Triangle NW:TriangleN:ParallelogramSN</v>
+        <v>Lvl2-2:TrapezeW:TriangleNW:TriangleNW:TriangleN:ParallelogramSN</v>
       </c>
       <c r="B6" t="str">
         <f>Sequences!C7&amp;":"&amp;Sequences!A7-1&amp;":"&amp;1</f>

--- a/Assets/Data/Weights.xlsx
+++ b/Assets/Data/Weights.xlsx
@@ -4,8 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17400" windowHeight="13480" tabRatio="500" activeTab="2"/>
-    <workbookView xWindow="10460" yWindow="400" windowWidth="16680" windowHeight="12920" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12020" windowHeight="13480" tabRatio="500" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Poids" sheetId="1" r:id="rId1"/>
@@ -13,6 +12,7 @@
     <sheet name="Sequences" sheetId="3" r:id="rId3"/>
     <sheet name="Sortie2" sheetId="4" r:id="rId4"/>
     <sheet name="Weights" sheetId="5" r:id="rId5"/>
+    <sheet name="Feuil1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Weights" localSheetId="0">Poids!$B$1:$F$2</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="57">
   <si>
     <t>Type</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>:</t>
+  </si>
+  <si>
+    <t>ParallelogramNESW</t>
   </si>
 </sst>
 </file>
@@ -274,9 +277,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -352,7 +367,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="78">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
@@ -385,6 +400,12 @@
     <cellStyle name="Lien hypertexte" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="62" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
@@ -417,6 +438,12 @@
     <cellStyle name="Lien hypertexte visité" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -756,7 +783,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="A20:XFD23"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1573,7 +1599,6 @@
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -1586,7 +1611,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1707,7 +1731,6 @@
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -1717,10 +1740,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2114,7 +2136,6 @@
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -2124,11 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="B8" sqref="B1:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2222,7 +2240,6 @@
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -2233,9 +2250,6 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
@@ -2243,6 +2257,348 @@
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="str">
+        <f>A1</f>
+        <v>TriangleNE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="str">
+        <f t="shared" ref="A6:A8" si="0">A2</f>
+        <v>TriangleSE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>TriangleSW</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>TriangleNW</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="str">
+        <f>"Big"&amp;A1</f>
+        <v>BigTriangleNE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="str">
+        <f t="shared" ref="A10:A21" si="1">"Big"&amp;A2</f>
+        <v>BigTriangleSE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="str">
+        <f t="shared" si="1"/>
+        <v>BigTriangleSW</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="str">
+        <f t="shared" si="1"/>
+        <v>BigTriangleNW</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="str">
+        <f t="shared" si="1"/>
+        <v>BigTriangleNE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="str">
+        <f t="shared" si="1"/>
+        <v>BigTriangleSE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="str">
+        <f t="shared" si="1"/>
+        <v>BigTriangleSW</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="str">
+        <f t="shared" si="1"/>
+        <v>BigTriangleNW</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="str">
+        <f>"Small"&amp;A1</f>
+        <v>SmallTriangleNE</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="str">
+        <f t="shared" ref="A18:A24" si="2">"Small"&amp;A2</f>
+        <v>SmallTriangleSE</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="str">
+        <f t="shared" si="2"/>
+        <v>SmallTriangleSW</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="str">
+        <f t="shared" si="2"/>
+        <v>SmallTriangleNW</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="str">
+        <f>"Small"&amp;A5</f>
+        <v>SmallTriangleNE</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="str">
+        <f t="shared" si="2"/>
+        <v>SmallTriangleSE</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="str">
+        <f t="shared" si="2"/>
+        <v>SmallTriangleSW</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="str">
+        <f t="shared" si="2"/>
+        <v>SmallTriangleNW</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="str">
+        <f>A25</f>
+        <v>TriangleS</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="str">
+        <f t="shared" ref="A30:A32" si="3">A26</f>
+        <v>TriangleW</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="str">
+        <f t="shared" si="3"/>
+        <v>TriangleN</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="str">
+        <f t="shared" si="3"/>
+        <v>TriangleE</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="str">
+        <f>SUBSTITUTE(A25,"Triangle","Trapeze")</f>
+        <v>TrapezeS</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="str">
+        <f t="shared" ref="A34:A41" si="4">SUBSTITUTE(A26,"Triangle","Trapeze")</f>
+        <v>TrapezeW</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="str">
+        <f t="shared" si="4"/>
+        <v>TrapezeN</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="str">
+        <f t="shared" si="4"/>
+        <v>TrapezeE</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="str">
+        <f t="shared" si="4"/>
+        <v>TrapezeS</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="str">
+        <f t="shared" si="4"/>
+        <v>TrapezeW</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="str">
+        <f t="shared" si="4"/>
+        <v>TrapezeN</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="str">
+        <f t="shared" si="4"/>
+        <v>TrapezeE</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/Assets/Data/Weights.xlsx
+++ b/Assets/Data/Weights.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12020" windowHeight="13480" tabRatio="500" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25880" windowHeight="13480" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Poids" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="70">
   <si>
     <t>Type</t>
   </si>
@@ -141,21 +141,9 @@
     <t>BigTriangleNE</t>
   </si>
   <si>
-    <t>TrapezeE</t>
-  </si>
-  <si>
     <t>ParallelogramNWSE</t>
   </si>
   <si>
-    <t>TrapezeN</t>
-  </si>
-  <si>
-    <t>TrapezeW</t>
-  </si>
-  <si>
-    <t>ParallelogramSN</t>
-  </si>
-  <si>
     <t>TriangleW</t>
   </si>
   <si>
@@ -214,13 +202,64 @@
   </si>
   <si>
     <t>ParallelogramNESW</t>
+  </si>
+  <si>
+    <t>CaleE</t>
+  </si>
+  <si>
+    <t>RevertCaleN</t>
+  </si>
+  <si>
+    <t>PacmanSW</t>
+  </si>
+  <si>
+    <t>CaleS</t>
+  </si>
+  <si>
+    <t>BigTriangleSE</t>
+  </si>
+  <si>
+    <t>PacmanNE</t>
+  </si>
+  <si>
+    <t>RevertCaleS</t>
+  </si>
+  <si>
+    <t>CaleW</t>
+  </si>
+  <si>
+    <t>BigTriangleSW</t>
+  </si>
+  <si>
+    <t>CaleN</t>
+  </si>
+  <si>
+    <t>BigTriangleNW</t>
+  </si>
+  <si>
+    <t>Shape14</t>
+  </si>
+  <si>
+    <t>Shape15</t>
+  </si>
+  <si>
+    <t>Shape16</t>
+  </si>
+  <si>
+    <t>Shape17</t>
+  </si>
+  <si>
+    <t>Shape18</t>
+  </si>
+  <si>
+    <t>Shape19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,6 +298,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,7 +323,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="78">
+  <cellStyleXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -356,8 +402,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,8 +432,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="78">
+  <cellStyles count="98">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
@@ -406,6 +473,16 @@
     <cellStyle name="Lien hypertexte" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="96" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
@@ -444,6 +521,16 @@
     <cellStyle name="Lien hypertexte visité" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1738,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1770,59 +1857,84 @@
     <col min="23" max="23" width="1.6640625" customWidth="1"/>
     <col min="25" max="25" width="2.33203125" customWidth="1"/>
     <col min="27" max="27" width="1.6640625" customWidth="1"/>
+    <col min="29" max="29" width="1.33203125" customWidth="1"/>
+    <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="1.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>48</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Z1" t="s">
         <v>49</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AB1" t="s">
         <v>50</v>
       </c>
-      <c r="V1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AD1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1838,19 +1950,19 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:41">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1866,31 +1978,31 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:41">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1906,19 +2018,19 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:41">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1931,22 +2043,28 @@
         <v>Lvl1-4</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1959,28 +2077,28 @@
         <v>Lvl2-1</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1993,34 +2111,28 @@
         <v>Lvl2-2</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
         <v>29</v>
       </c>
-      <c r="K7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2036,99 +2148,264 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
         <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:41">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <f>COUNTIF(A$2:A9,A9)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>Lvl3-1</v>
+        <v>Lvl2-4</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
         <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
         <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <f>COUNTIF(A$2:A10,A10)</f>
+        <v>5</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ref="C10:C11" si="1">"Lvl"&amp;A10&amp;"-"&amp;B10</f>
+        <v>Lvl2-5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <f>COUNTIF(A$2:A11,A11)</f>
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>Lvl3-1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" t="s">
+        <v>51</v>
+      </c>
+      <c r="T11" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W11" t="s">
+        <v>51</v>
+      </c>
+      <c r="X11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2143,20 +2420,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:A8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="99.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="198" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="str">
-        <f>Sequences!C2&amp;":"&amp;Sequences!D2&amp;Sequences!E2&amp;Sequences!F2&amp;Sequences!G2&amp;Sequences!H2&amp;Sequences!I2&amp;Sequences!J2&amp;Sequences!K2&amp;Sequences!L2&amp;Sequences!M2&amp;Sequences!N2&amp;Sequences!O2&amp;Sequences!P2&amp;Sequences!Q2&amp;Sequences!R2&amp;Sequences!S2&amp;Sequences!T2&amp;Sequences!U2&amp;Sequences!V2&amp;Sequences!W2&amp;Sequences!X2&amp;Sequences!Y2&amp;Sequences!Z2&amp;Sequences!AA2&amp;Sequences!AB2</f>
+        <f>Sequences!C2&amp;":"&amp;Sequences!D2&amp;Sequences!E2&amp;Sequences!F2&amp;Sequences!G2&amp;Sequences!H2&amp;Sequences!I2&amp;Sequences!J2&amp;Sequences!K2&amp;Sequences!L2&amp;Sequences!M2&amp;Sequences!N2&amp;Sequences!O2&amp;Sequences!P2&amp;Sequences!Q2&amp;Sequences!R2&amp;Sequences!S2&amp;Sequences!T2&amp;Sequences!U2&amp;Sequences!V2&amp;Sequences!W2&amp;Sequences!X2&amp;Sequences!Y2&amp;Sequences!Z2&amp;Sequences!AA2&amp;Sequences!AB2&amp;Sequences!AC2&amp;Sequences!AD2&amp;Sequences!AE2&amp;Sequences!AF2&amp;Sequences!AG2&amp;Sequences!AH2&amp;Sequences!AI2&amp;Sequences!AJ2&amp;Sequences!AK2&amp;Sequences!AL2&amp;Sequences!AM2&amp;Sequences!AN2</f>
         <v>Lvl1-1:TriangleSW:ParallelogramSENW:TriangleNE</v>
       </c>
       <c r="B1" t="str">
@@ -2166,7 +2443,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="str">
-        <f>Sequences!C3&amp;":"&amp;Sequences!D3&amp;Sequences!E3&amp;Sequences!F3&amp;Sequences!G3&amp;Sequences!H3&amp;Sequences!I3&amp;Sequences!J3&amp;Sequences!K3&amp;Sequences!L3&amp;Sequences!M3&amp;Sequences!N3&amp;Sequences!O3&amp;Sequences!P3&amp;Sequences!Q3&amp;Sequences!R3&amp;Sequences!S3&amp;Sequences!T3&amp;Sequences!U3&amp;Sequences!V3&amp;Sequences!W3&amp;Sequences!X3&amp;Sequences!Y3&amp;Sequences!Z3&amp;Sequences!AA3&amp;Sequences!AB3</f>
+        <f>Sequences!C3&amp;":"&amp;Sequences!D3&amp;Sequences!E3&amp;Sequences!F3&amp;Sequences!G3&amp;Sequences!H3&amp;Sequences!I3&amp;Sequences!J3&amp;Sequences!K3&amp;Sequences!L3&amp;Sequences!M3&amp;Sequences!N3&amp;Sequences!O3&amp;Sequences!P3&amp;Sequences!Q3&amp;Sequences!R3&amp;Sequences!S3&amp;Sequences!T3&amp;Sequences!U3&amp;Sequences!V3&amp;Sequences!W3&amp;Sequences!X3&amp;Sequences!Y3&amp;Sequences!Z3&amp;Sequences!AA3&amp;Sequences!AB3&amp;Sequences!AC3&amp;Sequences!AD3&amp;Sequences!AE3&amp;Sequences!AF3&amp;Sequences!AG3&amp;Sequences!AH3&amp;Sequences!AI3&amp;Sequences!AJ3&amp;Sequences!AK3&amp;Sequences!AL3&amp;Sequences!AM3&amp;Sequences!AN3</f>
         <v>Lvl1-2:TriangleNW:TriangleSE:TriangleSW:TriangleNE:Diamond</v>
       </c>
       <c r="B2" t="str">
@@ -2176,7 +2453,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="str">
-        <f>Sequences!C4&amp;":"&amp;Sequences!D4&amp;Sequences!E4&amp;Sequences!F4&amp;Sequences!G4&amp;Sequences!H4&amp;Sequences!I4&amp;Sequences!J4&amp;Sequences!K4&amp;Sequences!L4&amp;Sequences!M4&amp;Sequences!N4&amp;Sequences!O4&amp;Sequences!P4&amp;Sequences!Q4&amp;Sequences!R4&amp;Sequences!S4&amp;Sequences!T4&amp;Sequences!U4&amp;Sequences!V4&amp;Sequences!W4&amp;Sequences!X4&amp;Sequences!Y4&amp;Sequences!Z4&amp;Sequences!AA4&amp;Sequences!AB4</f>
+        <f>Sequences!C4&amp;":"&amp;Sequences!D4&amp;Sequences!E4&amp;Sequences!F4&amp;Sequences!G4&amp;Sequences!H4&amp;Sequences!I4&amp;Sequences!J4&amp;Sequences!K4&amp;Sequences!L4&amp;Sequences!M4&amp;Sequences!N4&amp;Sequences!O4&amp;Sequences!P4&amp;Sequences!Q4&amp;Sequences!R4&amp;Sequences!S4&amp;Sequences!T4&amp;Sequences!U4&amp;Sequences!V4&amp;Sequences!W4&amp;Sequences!X4&amp;Sequences!Y4&amp;Sequences!Z4&amp;Sequences!AA4&amp;Sequences!AB4&amp;Sequences!AC4&amp;Sequences!AD4&amp;Sequences!AE4&amp;Sequences!AF4&amp;Sequences!AG4&amp;Sequences!AH4&amp;Sequences!AI4&amp;Sequences!AJ4&amp;Sequences!AK4&amp;Sequences!AL4&amp;Sequences!AM4&amp;Sequences!AN4</f>
         <v>Lvl1-3:TriangleN:TriangleE:BigTriangleNE</v>
       </c>
       <c r="B3" t="str">
@@ -2186,8 +2463,8 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="str">
-        <f>Sequences!C5&amp;":"&amp;Sequences!D5&amp;Sequences!E5&amp;Sequences!F5&amp;Sequences!G5&amp;Sequences!H5&amp;Sequences!I5&amp;Sequences!J5&amp;Sequences!K5&amp;Sequences!L5&amp;Sequences!M5&amp;Sequences!N5&amp;Sequences!O5&amp;Sequences!P5&amp;Sequences!Q5&amp;Sequences!R5&amp;Sequences!S5&amp;Sequences!T5&amp;Sequences!U5&amp;Sequences!V5&amp;Sequences!W5&amp;Sequences!X5&amp;Sequences!Y5&amp;Sequences!Z5&amp;Sequences!AA5&amp;Sequences!AB5</f>
-        <v>Lvl1-4:TriangleSE:TriangleNE:TrapezeE</v>
+        <f>Sequences!C5&amp;":"&amp;Sequences!D5&amp;Sequences!E5&amp;Sequences!F5&amp;Sequences!G5&amp;Sequences!H5&amp;Sequences!I5&amp;Sequences!J5&amp;Sequences!K5&amp;Sequences!L5&amp;Sequences!M5&amp;Sequences!N5&amp;Sequences!O5&amp;Sequences!P5&amp;Sequences!Q5&amp;Sequences!R5&amp;Sequences!S5&amp;Sequences!T5&amp;Sequences!U5&amp;Sequences!V5&amp;Sequences!W5&amp;Sequences!X5&amp;Sequences!Y5&amp;Sequences!Z5&amp;Sequences!AA5&amp;Sequences!AB5&amp;Sequences!AC5&amp;Sequences!AD5&amp;Sequences!AE5&amp;Sequences!AF5&amp;Sequences!AG5&amp;Sequences!AH5&amp;Sequences!AI5&amp;Sequences!AJ5&amp;Sequences!AK5&amp;Sequences!AL5&amp;Sequences!AM5&amp;Sequences!AN5</f>
+        <v>Lvl1-4:TriangleE:TriangleW:TriangleS:TriangleN</v>
       </c>
       <c r="B4" t="str">
         <f>Sequences!C5&amp;":"&amp;Sequences!A5-1&amp;":"&amp;1</f>
@@ -2196,8 +2473,8 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="str">
-        <f>Sequences!C6&amp;":"&amp;Sequences!D6&amp;Sequences!E6&amp;Sequences!F6&amp;Sequences!G6&amp;Sequences!H6&amp;Sequences!I6&amp;Sequences!J6&amp;Sequences!K6&amp;Sequences!L6&amp;Sequences!M6&amp;Sequences!N6&amp;Sequences!O6&amp;Sequences!P6&amp;Sequences!Q6&amp;Sequences!R6&amp;Sequences!S6&amp;Sequences!T6&amp;Sequences!U6&amp;Sequences!V6&amp;Sequences!W6&amp;Sequences!X6&amp;Sequences!Y6&amp;Sequences!Z6&amp;Sequences!AA6&amp;Sequences!AB6</f>
-        <v>Lvl2-1:ParallelogramNWSE:TriangleE:BigTriangleNE:TrapezeN</v>
+        <f>Sequences!C6&amp;":"&amp;Sequences!D6&amp;Sequences!E6&amp;Sequences!F6&amp;Sequences!G6&amp;Sequences!H6&amp;Sequences!I6&amp;Sequences!J6&amp;Sequences!K6&amp;Sequences!L6&amp;Sequences!M6&amp;Sequences!N6&amp;Sequences!O6&amp;Sequences!P6&amp;Sequences!Q6&amp;Sequences!R6&amp;Sequences!S6&amp;Sequences!T6&amp;Sequences!U6&amp;Sequences!V6&amp;Sequences!W6&amp;Sequences!X6&amp;Sequences!Y6&amp;Sequences!Z6&amp;Sequences!AA6&amp;Sequences!AB6&amp;Sequences!AC6&amp;Sequences!AD6&amp;Sequences!AE6&amp;Sequences!AF6&amp;Sequences!AG6&amp;Sequences!AH6&amp;Sequences!AI6&amp;Sequences!AJ6&amp;Sequences!AK6&amp;Sequences!AL6&amp;Sequences!AM6&amp;Sequences!AN6</f>
+        <v>Lvl2-1:CaleE:RevertCaleN:ParallelogramNWSE:BigTriangleNE</v>
       </c>
       <c r="B5" t="str">
         <f>Sequences!C6&amp;":"&amp;Sequences!A6-1&amp;":"&amp;1</f>
@@ -2206,8 +2483,8 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="str">
-        <f>Sequences!C7&amp;":"&amp;Sequences!D7&amp;Sequences!E7&amp;Sequences!F7&amp;Sequences!G7&amp;Sequences!H7&amp;Sequences!I7&amp;Sequences!J7&amp;Sequences!K7&amp;Sequences!L7&amp;Sequences!M7&amp;Sequences!N7&amp;Sequences!O7&amp;Sequences!P7&amp;Sequences!Q7&amp;Sequences!R7&amp;Sequences!S7&amp;Sequences!T7&amp;Sequences!U7&amp;Sequences!V7&amp;Sequences!W7&amp;Sequences!X7&amp;Sequences!Y7&amp;Sequences!Z7&amp;Sequences!AA7&amp;Sequences!AB7</f>
-        <v>Lvl2-2:TrapezeW:TriangleNW:TriangleNW:TriangleN:ParallelogramSN</v>
+        <f>Sequences!C7&amp;":"&amp;Sequences!D7&amp;Sequences!E7&amp;Sequences!F7&amp;Sequences!G7&amp;Sequences!H7&amp;Sequences!I7&amp;Sequences!J7&amp;Sequences!K7&amp;Sequences!L7&amp;Sequences!M7&amp;Sequences!N7&amp;Sequences!O7&amp;Sequences!P7&amp;Sequences!Q7&amp;Sequences!R7&amp;Sequences!S7&amp;Sequences!T7&amp;Sequences!U7&amp;Sequences!V7&amp;Sequences!W7&amp;Sequences!X7&amp;Sequences!Y7&amp;Sequences!Z7&amp;Sequences!AA7&amp;Sequences!AB7&amp;Sequences!AC7&amp;Sequences!AD7&amp;Sequences!AE7&amp;Sequences!AF7&amp;Sequences!AG7&amp;Sequences!AH7&amp;Sequences!AI7&amp;Sequences!AJ7&amp;Sequences!AK7&amp;Sequences!AL7&amp;Sequences!AM7&amp;Sequences!AN7</f>
+        <v>Lvl2-2:TriangleNE:ParallelogramNWSE:TriangleNW:TriangleN</v>
       </c>
       <c r="B6" t="str">
         <f>Sequences!C7&amp;":"&amp;Sequences!A7-1&amp;":"&amp;1</f>
@@ -2216,7 +2493,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="str">
-        <f>Sequences!C8&amp;":"&amp;Sequences!D8&amp;Sequences!E8&amp;Sequences!F8&amp;Sequences!G8&amp;Sequences!H8&amp;Sequences!I8&amp;Sequences!J8&amp;Sequences!K8&amp;Sequences!L8&amp;Sequences!M8&amp;Sequences!N8&amp;Sequences!O8&amp;Sequences!P8&amp;Sequences!Q8&amp;Sequences!R8&amp;Sequences!S8&amp;Sequences!T8&amp;Sequences!U8&amp;Sequences!V8&amp;Sequences!W8&amp;Sequences!X8&amp;Sequences!Y8&amp;Sequences!Z8&amp;Sequences!AA8&amp;Sequences!AB8</f>
+        <f>Sequences!C8&amp;":"&amp;Sequences!D8&amp;Sequences!E8&amp;Sequences!F8&amp;Sequences!G8&amp;Sequences!H8&amp;Sequences!I8&amp;Sequences!J8&amp;Sequences!K8&amp;Sequences!L8&amp;Sequences!M8&amp;Sequences!N8&amp;Sequences!O8&amp;Sequences!P8&amp;Sequences!Q8&amp;Sequences!R8&amp;Sequences!S8&amp;Sequences!T8&amp;Sequences!U8&amp;Sequences!V8&amp;Sequences!W8&amp;Sequences!X8&amp;Sequences!Y8&amp;Sequences!Z8&amp;Sequences!AA8&amp;Sequences!AB8&amp;Sequences!AC8&amp;Sequences!AD8&amp;Sequences!AE8&amp;Sequences!AF8&amp;Sequences!AG8&amp;Sequences!AH8&amp;Sequences!AI8&amp;Sequences!AJ8&amp;Sequences!AK8&amp;Sequences!AL8&amp;Sequences!AM8&amp;Sequences!AN8</f>
         <v>Lvl2-3:TriangleNW:TriangleNE:TriangleW:Diamond:TriangleN:TriangleE</v>
       </c>
       <c r="B7" t="str">
@@ -2226,11 +2503,31 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="str">
-        <f>Sequences!C9&amp;":"&amp;Sequences!D9&amp;Sequences!E9&amp;Sequences!F9&amp;Sequences!G9&amp;Sequences!H9&amp;Sequences!I9&amp;Sequences!J9&amp;Sequences!K9&amp;Sequences!L9&amp;Sequences!M9&amp;Sequences!N9&amp;Sequences!O9&amp;Sequences!P9&amp;Sequences!Q9&amp;Sequences!R9&amp;Sequences!S9&amp;Sequences!T9&amp;Sequences!U9&amp;Sequences!V9&amp;Sequences!W9&amp;Sequences!X9&amp;Sequences!Y9&amp;Sequences!Z9&amp;Sequences!AA9&amp;Sequences!AB9</f>
-        <v>Lvl3-1:TriangleSW:TriangleN:Diamond:TriangleE:TriangleNE:TriangleS:TriangleW:ParallelogramSWNE:ParallelogramSENW</v>
+        <f>Sequences!C9&amp;":"&amp;Sequences!D9&amp;Sequences!E9&amp;Sequences!F9&amp;Sequences!G9&amp;Sequences!H9&amp;Sequences!I9&amp;Sequences!J9&amp;Sequences!K9&amp;Sequences!L9&amp;Sequences!M9&amp;Sequences!N9&amp;Sequences!O9&amp;Sequences!P9&amp;Sequences!Q9&amp;Sequences!R9&amp;Sequences!S9&amp;Sequences!T9&amp;Sequences!U9&amp;Sequences!V9&amp;Sequences!W9&amp;Sequences!X9&amp;Sequences!Y9&amp;Sequences!Z9&amp;Sequences!AA9&amp;Sequences!AB9&amp;Sequences!AC9&amp;Sequences!AD9&amp;Sequences!AE9&amp;Sequences!AF9&amp;Sequences!AG9&amp;Sequences!AH9&amp;Sequences!AI9&amp;Sequences!AJ9&amp;Sequences!AK9&amp;Sequences!AL9&amp;Sequences!AM9&amp;Sequences!AN9</f>
+        <v>Lvl2-4:TriangleSW:TriangleN:Diamond:TriangleE:TriangleNE:TriangleS:TriangleW:ParallelogramSWNE:ParallelogramSENW</v>
       </c>
       <c r="B8" t="str">
         <f>Sequences!C9&amp;":"&amp;Sequences!A9-1&amp;":"&amp;1</f>
+        <v>Lvl2-4:1:1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="str">
+        <f>Sequences!C10&amp;":"&amp;Sequences!D10&amp;Sequences!E10&amp;Sequences!F10&amp;Sequences!G10&amp;Sequences!H10&amp;Sequences!I10&amp;Sequences!J10&amp;Sequences!K10&amp;Sequences!L10&amp;Sequences!M10&amp;Sequences!N10&amp;Sequences!O10&amp;Sequences!P10&amp;Sequences!Q10&amp;Sequences!R10&amp;Sequences!S10&amp;Sequences!T10&amp;Sequences!U10&amp;Sequences!V10&amp;Sequences!W10&amp;Sequences!X10&amp;Sequences!Y10&amp;Sequences!Z10&amp;Sequences!AA10&amp;Sequences!AB10&amp;Sequences!AC10&amp;Sequences!AD10&amp;Sequences!AE10&amp;Sequences!AF10&amp;Sequences!AG10&amp;Sequences!AH10&amp;Sequences!AI10&amp;Sequences!AJ10&amp;Sequences!AK10&amp;Sequences!AL10&amp;Sequences!AM10&amp;Sequences!AN10</f>
+        <v>Lvl2-5:PacmanSW:TriangleNE:TriangleNW:CaleS:BigTriangleSE</v>
+      </c>
+      <c r="B9" t="str">
+        <f>Sequences!C10&amp;":"&amp;Sequences!A10-1&amp;":"&amp;1</f>
+        <v>Lvl2-5:1:1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="str">
+        <f>Sequences!C11&amp;":"&amp;Sequences!D11&amp;Sequences!E11&amp;Sequences!F11&amp;Sequences!G11&amp;Sequences!H11&amp;Sequences!I11&amp;Sequences!J11&amp;Sequences!K11&amp;Sequences!L11&amp;Sequences!M11&amp;Sequences!N11&amp;Sequences!O11&amp;Sequences!P11&amp;Sequences!Q11&amp;Sequences!R11&amp;Sequences!S11&amp;Sequences!T11&amp;Sequences!U11&amp;Sequences!V11&amp;Sequences!W11&amp;Sequences!X11&amp;Sequences!Y11&amp;Sequences!Z11&amp;Sequences!AA11&amp;Sequences!AB11&amp;Sequences!AC11&amp;Sequences!AD11&amp;Sequences!AE11&amp;Sequences!AF11&amp;Sequences!AG11&amp;Sequences!AH11&amp;Sequences!AI11&amp;Sequences!AJ11&amp;Sequences!AK11&amp;Sequences!AL11&amp;Sequences!AM11&amp;Sequences!AN11</f>
+        <v>Lvl3-1:BigTriangleNE:TriangleSW:PacmanNE:PacmanSW:TriangleSE:TriangleNE:TriangleNW:TriangleE:RevertCaleS:CaleW:TriangleN:RevertCaleS:BigTriangleSW:CaleN:BigTriangleNW:ParallelogramSWNE:BigTriangleSE:ParallelogramNESW:CaleS</v>
+      </c>
+      <c r="B10" t="str">
+        <f>Sequences!C11&amp;":"&amp;Sequences!A11-1&amp;":"&amp;1</f>
         <v>Lvl3-1:2:1</v>
       </c>
     </row>
@@ -2324,7 +2621,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="str">
-        <f t="shared" ref="A10:A21" si="1">"Big"&amp;A2</f>
+        <f t="shared" ref="A10:A16" si="1">"Big"&amp;A2</f>
         <v>BigTriangleSE</v>
       </c>
     </row>
@@ -2414,12 +2711,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -2464,7 +2761,7 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="str">
-        <f t="shared" ref="A34:A41" si="4">SUBSTITUTE(A26,"Triangle","Trapeze")</f>
+        <f t="shared" ref="A34:A40" si="4">SUBSTITUTE(A26,"Triangle","Trapeze")</f>
         <v>TrapezeW</v>
       </c>
     </row>
@@ -2506,27 +2803,27 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -2536,7 +2833,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:1">
